--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570F2B4-89B5-4171-A84E-8152740AECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2AA8E2-C7E4-400D-AED8-628BFEAE118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>District Cells</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>a_zone</t>
+  </si>
+  <si>
+    <t>Disable  Drop Iteration Count</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,6 +665,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,19 +1052,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD661-2632-4480-B203-F02323474A53}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1219,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B173EE-A1D2-4333-A54C-D3E209060CDB}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1230,15 +1236,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1253,21 +1259,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1282,17 +1288,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1309,9 +1315,9 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1830,12 +1836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1924,181 +1930,198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54484E3E-C973-4989-9AC4-43AA9E0F41CE}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="9" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2109,7 +2132,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2119,15 +2142,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2142,21 +2165,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2171,17 +2194,17 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2198,9 +2221,9 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>

--- a/examples/template.xlsx
+++ b/examples/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2AA8E2-C7E4-400D-AED8-628BFEAE118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D89E1A-91C1-4E63-8077-70E42379AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{FF0F59C4-A9DD-4BAB-8433-18F872FB21FE}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FD661-2632-4480-B203-F02323474A53}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B173EE-A1D2-4333-A54C-D3E209060CDB}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
